--- a/Figures/single_tree_len_fig2.xlsx
+++ b/Figures/single_tree_len_fig2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1036,11 +1036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="413480456"/>
-        <c:axId val="413478104"/>
+        <c:axId val="386757720"/>
+        <c:axId val="386748312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413480456"/>
+        <c:axId val="386757720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413478104"/>
+        <c:crossAx val="386748312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413478104"/>
+        <c:axId val="386748312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413480456"/>
+        <c:crossAx val="386757720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
